--- a/input/Quadratic1.xlsx
+++ b/input/Quadratic1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2062704548128181</v>
+        <v>0.2182062694869273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5910540450764382</v>
+        <v>0.727114017474318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4117552838844777</v>
+        <v>0.3056242433470812</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1798604763037616</v>
+        <v>0.1728940631576693</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1386388533210829</v>
+        <v>0.3189668226482641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3407116413183314</v>
+        <v>0.2806941821307254</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1.176470588235294</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1009405444182974</v>
+        <v>0.2026979580823564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8431557036465356</v>
+        <v>1.988221847353749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4006475706230391</v>
+        <v>0.3139868914312781</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1.764705882352941</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236564261648293</v>
+        <v>0.2135013263428866</v>
       </c>
       <c r="C5" t="n">
-        <v>1.315560494017903</v>
+        <v>1.466772960679729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1813685359621732</v>
+        <v>0.2111532367743074</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2.352941176470588</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2375201024005453</v>
+        <v>0.1790377367902297</v>
       </c>
       <c r="C6" t="n">
-        <v>2.557715147996139</v>
+        <v>3.680984438311768</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1586148453275578</v>
+        <v>0.2544067902771067</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2.941176470588236</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1422452095437661</v>
+        <v>0.1476591858533107</v>
       </c>
       <c r="C7" t="n">
-        <v>4.168377003930448</v>
+        <v>4.032918071143688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4211481169373754</v>
+        <v>0.2311548327076659</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>3.529411764705882</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1098304579921349</v>
+        <v>0.1689252967058519</v>
       </c>
       <c r="C8" t="n">
-        <v>6.757763715024351</v>
+        <v>6.002255972224708</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3483979326207394</v>
+        <v>0.2627284189232876</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>4.11764705882353</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1163844245465932</v>
+        <v>0.2253248938005501</v>
       </c>
       <c r="C9" t="n">
-        <v>8.849332503659802</v>
+        <v>8.616201250615793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3394327518579043</v>
+        <v>0.183676005822393</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>4.705882352941177</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2074115817974584</v>
+        <v>0.2840942207071662</v>
       </c>
       <c r="C10" t="n">
-        <v>10.70041332152887</v>
+        <v>10.77316973899689</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2797978806724351</v>
+        <v>0.4144955855970494</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>5.294117647058823</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1962659672937423</v>
+        <v>0.1157406564722776</v>
       </c>
       <c r="C11" t="n">
-        <v>13.67814501821842</v>
+        <v>14.39979474203238</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4323703993051357</v>
+        <v>0.2917191737295326</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>5.882352941176471</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2316923381706573</v>
+        <v>0.1308992366970819</v>
       </c>
       <c r="C12" t="n">
-        <v>16.62342065807411</v>
+        <v>16.79950491845142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4492535893108436</v>
+        <v>0.3647787250130659</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>6.470588235294118</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1017502030732657</v>
+        <v>0.1188024213760002</v>
       </c>
       <c r="C13" t="n">
-        <v>21.28174810043861</v>
+        <v>20.50627134335875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4133763438929601</v>
+        <v>0.28004431159937</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>7.058823529411764</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1991829003555567</v>
+        <v>0.1772004303011717</v>
       </c>
       <c r="C14" t="n">
-        <v>25.19951762316557</v>
+        <v>24.13902237633232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4055970839728434</v>
+        <v>0.2559651345863</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>7.647058823529412</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1584031527915081</v>
+        <v>0.1358568744455128</v>
       </c>
       <c r="C15" t="n">
-        <v>28.78910466516982</v>
+        <v>29.6106011778766</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3539376366406894</v>
+        <v>0.3122148700369549</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>8.23529411764706</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1266200087559314</v>
+        <v>0.1585866003157774</v>
       </c>
       <c r="C16" t="n">
-        <v>33.11671415892888</v>
+        <v>33.76421156042156</v>
       </c>
       <c r="D16" t="n">
-        <v>0.371763600744793</v>
+        <v>0.21988898692052</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>8.823529411764707</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2925357094194012</v>
+        <v>0.1544096646683313</v>
       </c>
       <c r="C17" t="n">
-        <v>38.357700478729</v>
+        <v>38.70524170350165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.347595227427952</v>
+        <v>0.2559563306151532</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>9.411764705882353</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2743481304029396</v>
+        <v>0.2382661534364694</v>
       </c>
       <c r="C18" t="n">
-        <v>43.76179831103511</v>
+        <v>44.61726158553743</v>
       </c>
       <c r="D18" t="n">
-        <v>0.436557567523388</v>
+        <v>0.3879057784949178</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>0.170361895628074</v>
+        <v>0.1398407872048483</v>
       </c>
       <c r="C19" t="n">
-        <v>50.583655251964</v>
+        <v>50.39233091677868</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333802400816818</v>
+        <v>0.2216534357382231</v>
       </c>
     </row>
   </sheetData>
